--- a/avia_par_svo.xlsx
+++ b/avia_par_svo.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/TNDP_Russia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BD7B76-B37B-0541-867D-87DDA89AF16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7D4C0-B86F-DD4B-93C4-5E063130ED02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{6E2154DC-2966-0C44-9568-CA71D2B0DDB9}"/>
   </bookViews>
   <sheets>
     <sheet name="avia_par_svo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>3520</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>2267</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>3194</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>3922</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>528500</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>340356</v>
+        <v>25920</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>185387</v>
+        <v>25920</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>479404</v>
+        <v>60480</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <v>588595</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>2651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>2695</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
